--- a/natmiOut/OldD2/LR-pairs_lrc2p/Wnt5a-Fzd8.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Wnt5a-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.33382986736422</v>
+        <v>4.619088000000001</v>
       </c>
       <c r="H2">
-        <v>4.33382986736422</v>
+        <v>13.857264</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +555,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.52477890760023</v>
+        <v>2.569008</v>
       </c>
       <c r="N2">
-        <v>2.52477890760023</v>
+        <v>5.138016</v>
       </c>
       <c r="O2">
-        <v>0.2790649919610129</v>
+        <v>0.2577238367773512</v>
       </c>
       <c r="P2">
-        <v>0.2790649919610129</v>
+        <v>0.2133397199412101</v>
       </c>
       <c r="Q2">
-        <v>10.94196223824909</v>
+        <v>11.866474024704</v>
       </c>
       <c r="R2">
-        <v>10.94196223824909</v>
+        <v>71.19884414822401</v>
       </c>
       <c r="S2">
-        <v>0.2790649919610129</v>
+        <v>0.2577238367773512</v>
       </c>
       <c r="T2">
-        <v>0.2790649919610129</v>
+        <v>0.2133397199412101</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +599,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.33382986736422</v>
+        <v>4.619088000000001</v>
       </c>
       <c r="H3">
-        <v>4.33382986736422</v>
+        <v>13.857264</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,34 +617,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.91974862561398</v>
+        <v>2.043481333333333</v>
       </c>
       <c r="N3">
-        <v>1.91974862561398</v>
+        <v>6.130444</v>
       </c>
       <c r="O3">
-        <v>0.212190712288285</v>
+        <v>0.2050028063787906</v>
       </c>
       <c r="P3">
-        <v>0.212190712288285</v>
+        <v>0.2545471259870097</v>
       </c>
       <c r="Q3">
-        <v>8.319863931517279</v>
+        <v>9.439020105024001</v>
       </c>
       <c r="R3">
-        <v>8.319863931517279</v>
+        <v>84.951180945216</v>
       </c>
       <c r="S3">
-        <v>0.212190712288285</v>
+        <v>0.2050028063787906</v>
       </c>
       <c r="T3">
-        <v>0.212190712288285</v>
+        <v>0.2545471259870097</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +661,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.33382986736422</v>
+        <v>4.619088000000001</v>
       </c>
       <c r="H4">
-        <v>4.33382986736422</v>
+        <v>13.857264</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.96309843960945</v>
+        <v>0.01206</v>
       </c>
       <c r="N4">
-        <v>1.96309843960945</v>
+        <v>0.03618</v>
       </c>
       <c r="O4">
-        <v>0.2169821874775544</v>
+        <v>0.001209863679496076</v>
       </c>
       <c r="P4">
-        <v>0.2169821874775544</v>
+        <v>0.001502259056311421</v>
       </c>
       <c r="Q4">
-        <v>8.50773465015553</v>
+        <v>0.05570620128000001</v>
       </c>
       <c r="R4">
-        <v>8.50773465015553</v>
+        <v>0.50135581152</v>
       </c>
       <c r="S4">
-        <v>0.2169821874775544</v>
+        <v>0.001209863679496076</v>
       </c>
       <c r="T4">
-        <v>0.2169821874775544</v>
+        <v>0.001502259056311421</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +723,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.33382986736422</v>
+        <v>4.619088000000001</v>
       </c>
       <c r="H5">
-        <v>4.33382986736422</v>
+        <v>13.857264</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +741,158 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.63965326438341</v>
+        <v>0.03685233333333333</v>
       </c>
       <c r="N5">
-        <v>2.63965326438341</v>
+        <v>0.110557</v>
       </c>
       <c r="O5">
-        <v>0.2917621082731477</v>
+        <v>0.003697039768215801</v>
       </c>
       <c r="P5">
-        <v>0.2917621082731477</v>
+        <v>0.004590526658060303</v>
       </c>
       <c r="Q5">
-        <v>11.43980815667028</v>
+        <v>0.170224170672</v>
       </c>
       <c r="R5">
-        <v>11.43980815667028</v>
+        <v>1.532017536048</v>
       </c>
       <c r="S5">
-        <v>0.2917621082731477</v>
+        <v>0.003697039768215801</v>
       </c>
       <c r="T5">
-        <v>0.2917621082731477</v>
+        <v>0.004590526658060303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H6">
+        <v>13.857264</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.055205</v>
+      </c>
+      <c r="N6">
+        <v>6.165615</v>
+      </c>
+      <c r="O6">
+        <v>0.206178928973361</v>
+      </c>
+      <c r="P6">
+        <v>0.2560074895378535</v>
+      </c>
+      <c r="Q6">
+        <v>9.493172753040001</v>
+      </c>
+      <c r="R6">
+        <v>85.43855477736</v>
+      </c>
+      <c r="S6">
+        <v>0.206178928973361</v>
+      </c>
+      <c r="T6">
+        <v>0.2560074895378535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H7">
+        <v>13.857264</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.2514585</v>
+      </c>
+      <c r="N7">
+        <v>6.502917</v>
+      </c>
+      <c r="O7">
+        <v>0.3261875244227855</v>
+      </c>
+      <c r="P7">
+        <v>0.2700128788195549</v>
+      </c>
+      <c r="Q7">
+        <v>15.018772939848</v>
+      </c>
+      <c r="R7">
+        <v>90.11263763908801</v>
+      </c>
+      <c r="S7">
+        <v>0.3261875244227855</v>
+      </c>
+      <c r="T7">
+        <v>0.2700128788195549</v>
       </c>
     </row>
   </sheetData>
